--- a/tests/mode1/randomPanel2/Moderate_vs_Severe/MergedResult/SavedModel_summary.xlsx
+++ b/tests/mode1/randomPanel2/Moderate_vs_Severe/MergedResult/SavedModel_summary.xlsx
@@ -999,42 +999,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Compound_13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Compound_22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Compound_13</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Compound_19</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Compound_19</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Compound_19</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>Compound_35</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Compound_22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Compound_22</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Compound_35</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Compound_19</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Compound_22</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Compound_35</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1076,32 +1076,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Compound_19</t>
+          <t>Compound_35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Compound_0</t>
+          <t>Compound_13</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Compound_19</t>
+          <t>Compound_22</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Compound_35</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Compound_13</t>
+          <t>Compound_0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
